--- a/biology/Botanique/Bois_du_Névet/Bois_du_Névet.xlsx
+++ b/biology/Botanique/Bois_du_Névet/Bois_du_Névet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_du_N%C3%A9vet</t>
+          <t>Bois_du_Névet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois du Névet (en breton : Koat Nevet) est une étendue boisée dans le sud du département du Finistère en Bretagne, France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_du_N%C3%A9vet</t>
+          <t>Bois_du_Névet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé dans le sud du département du Finistère, sur les communes de Kerlaz, Plogonnec, Le Juch et Locronan. Au sud du bois, le Névet prend sa source pour ensuite se jeter dans l'océan Atlantique dans la baie de Douarnenez. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_du_N%C3%A9vet</t>
+          <t>Bois_du_Névet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'étend sur une surface de 225 hectares[1]. C'est une propriété du Conseil départemental du Finistère, au titre des espaces naturels sensibles. On y trouve notamment de l'osmonde royale, fougère rare en milieu forestier[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'étend sur une surface de 225 hectares. C'est une propriété du Conseil départemental du Finistère, au titre des espaces naturels sensibles. On y trouve notamment de l'osmonde royale, fougère rare en milieu forestier.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bois_du_N%C3%A9vet</t>
+          <t>Bois_du_Névet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On y produit la tomme du Névet.
 </t>
